--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_20-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_20-49.xlsx
@@ -260,7 +260,13 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
@@ -2500,17 +2506,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>59.5</v>
+        <v>99</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2526,17 +2532,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>40.479999999999997</v>
+        <v>59.5</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2552,17 +2558,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2578,17 +2584,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>64</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2604,17 +2610,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2630,17 +2636,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2656,17 +2662,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>69.5</v>
+        <v>19</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2688,7 +2694,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2714,7 +2720,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>50</v>
+        <v>69.5</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2740,7 +2746,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2760,13 +2766,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2786,17 +2792,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2804,7 +2810,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2818,11 +2824,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2830,7 +2836,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2838,17 +2844,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>69.900000000000006</v>
+        <v>45</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2864,17 +2870,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2882,7 +2888,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2890,13 +2896,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>57</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2908,7 +2914,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2916,17 +2922,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2934,7 +2940,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2942,13 +2948,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2968,17 +2974,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2994,17 +3000,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3020,17 +3026,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3046,17 +3052,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3064,7 +3070,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3072,17 +3078,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3090,7 +3096,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3098,17 +3104,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3124,13 +3130,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3156,7 +3162,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3176,17 +3182,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3202,17 +3208,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3228,17 +3234,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3254,17 +3260,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3280,17 +3286,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3306,17 +3312,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>153.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3332,13 +3338,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3364,11 +3370,11 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>180</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3384,13 +3390,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3410,17 +3416,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3442,11 +3448,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3462,17 +3468,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>225.59999999999999</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3480,7 +3486,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3488,17 +3494,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3506,7 +3512,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3514,17 +3520,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>124</v>
+        <v>225.59999999999999</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>2</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3540,13 +3546,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>73.319999999999993</v>
+        <v>45</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3566,17 +3572,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3592,17 +3598,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>45.5</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3618,13 +3624,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3644,17 +3650,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>75</v>
+        <v>45.5</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3662,7 +3668,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3670,17 +3676,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3688,7 +3694,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3696,17 +3702,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3722,17 +3728,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3740,7 +3746,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3748,7 +3754,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -3758,7 +3764,7 @@
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3766,7 +3772,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3774,17 +3780,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3800,17 +3806,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3826,17 +3832,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>0.98999999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3844,7 +3850,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3858,7 +3864,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3870,7 +3876,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3878,17 +3884,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>2</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3896,7 +3902,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3904,17 +3910,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3922,7 +3928,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3930,17 +3936,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3956,13 +3962,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3974,7 +3980,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3982,17 +3988,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4000,7 +4006,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4008,17 +4014,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4034,17 +4040,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4052,7 +4058,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4060,17 +4066,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4078,7 +4084,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4086,13 +4092,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4104,7 +4110,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4112,13 +4118,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4130,7 +4136,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4138,13 +4144,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4156,7 +4162,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4164,13 +4170,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4182,7 +4188,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4190,17 +4196,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4216,51 +4222,103 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="26.25" customHeight="1">
-      <c r="K125" s="11">
-        <v>6955.5</v>
-      </c>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="12">
+    <row r="125" ht="25.5" customHeight="1">
+      <c r="A125" s="6">
+        <v>122</v>
+      </c>
+      <c t="s" r="B125" s="7">
         <v>164</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c t="s" r="F126" s="13">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c t="s" r="H125" s="8">
+        <v>70</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9">
+        <v>8</v>
+      </c>
+      <c r="M125" s="9"/>
+      <c r="N125" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" ht="24.75" customHeight="1">
+      <c r="A126" s="6">
+        <v>123</v>
+      </c>
+      <c t="s" r="B126" s="7">
         <v>165</v>
       </c>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
-      <c t="s" r="I126" s="15">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c t="s" r="H126" s="8">
+        <v>160</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="9">
+        <v>40</v>
+      </c>
+      <c r="M126" s="9"/>
+      <c r="N126" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="26.25" customHeight="1">
+      <c r="K127" s="11">
+        <v>7081.5</v>
+      </c>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="12">
         <v>166</v>
       </c>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c t="s" r="F128" s="13">
+        <v>167</v>
+      </c>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
+      <c t="s" r="I128" s="15">
+        <v>168</v>
+      </c>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="374">
+  <mergeCells count="380">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4631,10 +4689,16 @@
     <mergeCell ref="B124:G124"/>
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
-    <mergeCell ref="K125:N125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="I126:N126"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="K127:N127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="I128:N128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
